--- a/PythonResources/Data/Consumption/Sympheny/post_CB_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CB_coo.xlsx
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>813.9051657287417</v>
+        <v>813.9051657287416</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -807,7 +807,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>99.60869154917938</v>
+        <v>99.60869154917935</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>708.6135336688802</v>
+        <v>708.6135336688801</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>679.766551333444</v>
+        <v>679.7665513334439</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -855,7 +855,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>696.5712446902855</v>
+        <v>696.5712446902854</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -871,7 +871,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>535.9683155038683</v>
+        <v>535.9683155038682</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -887,7 +887,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>766.5566087226148</v>
+        <v>766.5566087226147</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>754.5025969024737</v>
+        <v>754.5025969024736</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>786.0868627390068</v>
+        <v>786.0868627390067</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>538.7817974750172</v>
+        <v>538.7817974750171</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>82.55166402805042</v>
+        <v>82.55166402805041</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>99.3378939094563</v>
+        <v>99.33789390945628</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>91.13027242125328</v>
+        <v>91.13027242125325</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2.265005383714981</v>
+        <v>2.26500538371498</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>0.458749958237377</v>
+        <v>0.4587499582373769</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>602.7093831382165</v>
+        <v>602.7093831382164</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>0.1011514174966927</v>
+        <v>0.1011514174966926</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>188.7480063842596</v>
+        <v>188.7480063842595</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -10135,7 +10135,7 @@
         <v>1224</v>
       </c>
       <c r="B1224">
-        <v>425.7149907594702</v>
+        <v>425.7149907594701</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>418.0570445192493</v>
+        <v>418.0570445192492</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>241.4864328624073</v>
+        <v>241.4864328624072</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>599.0928865211355</v>
+        <v>599.0928865211354</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>486.3396658169561</v>
+        <v>486.339665816956</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>1246</v>
       </c>
       <c r="B1246">
-        <v>194.249828993049</v>
+        <v>194.2498289930489</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -10343,7 +10343,7 @@
         <v>1250</v>
       </c>
       <c r="B1250">
-        <v>198.4940837749426</v>
+        <v>198.4940837749425</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>409.5726379500033</v>
+        <v>409.5726379500032</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>189.2632252702262</v>
+        <v>189.2632252702261</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>138.2257831004689</v>
+        <v>138.2257831004688</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>91.13952467394382</v>
+        <v>91.1395246739438</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>35.37308822434706</v>
+        <v>35.37308822434705</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>1279</v>
       </c>
       <c r="B1279">
-        <v>39.72958921404796</v>
+        <v>39.72958921404795</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>39.76505080972598</v>
+        <v>39.76505080972597</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10599,7 +10599,7 @@
         <v>1282</v>
       </c>
       <c r="B1282">
-        <v>146.592375112173</v>
+        <v>146.5923751121729</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>198.1491391624382</v>
+        <v>198.1491391624381</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>460.4702852343192</v>
+        <v>460.4702852343191</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>91.43347492572116</v>
+        <v>91.43347492572114</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>334.5845512877249</v>
+        <v>334.5845512877248</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11271,7 +11271,7 @@
         <v>1366</v>
       </c>
       <c r="B1366">
-        <v>39.73193378235725</v>
+        <v>39.73193378235724</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>664.0638050819691</v>
+        <v>664.063805081969</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>602.993662045718</v>
+        <v>602.9936620457179</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>99.13714024797328</v>
+        <v>99.13714024797326</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12919,7 +12919,7 @@
         <v>1572</v>
       </c>
       <c r="B1572">
-        <v>709.9382147636295</v>
+        <v>709.9382147636294</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>908.2087029203358</v>
+        <v>908.2087029203356</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>647.3030723809268</v>
+        <v>647.3030723809267</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -16983,7 +16983,7 @@
         <v>2080</v>
       </c>
       <c r="B2080">
-        <v>730.4326724972174</v>
+        <v>730.4326724972173</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>584.7001678124768</v>
+        <v>584.7001678124767</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>734.9723428860816</v>
+        <v>734.9723428860815</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>99.18080783273382</v>
+        <v>99.18080783273381</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17199,7 +17199,7 @@
         <v>2107</v>
       </c>
       <c r="B2107">
-        <v>425.8410113060946</v>
+        <v>425.8410113060945</v>
       </c>
     </row>
     <row r="2108" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>82.24892164511326</v>
+        <v>82.24892164511324</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17711,7 +17711,7 @@
         <v>2171</v>
       </c>
       <c r="B2171">
-        <v>99.2643330787523</v>
+        <v>99.26433307875229</v>
       </c>
     </row>
     <row r="2172" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>454.6879936415308</v>
+        <v>454.6879936415307</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>698.2974331080009</v>
+        <v>698.2974331080007</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -18119,7 +18119,7 @@
         <v>2222</v>
       </c>
       <c r="B2222">
-        <v>897.5124716380503</v>
+        <v>897.5124716380502</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>898.136712950399</v>
+        <v>898.1367129503989</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18351,7 +18351,7 @@
         <v>2251</v>
       </c>
       <c r="B2251">
-        <v>909.3906408349948</v>
+        <v>909.3906408349944</v>
       </c>
     </row>
     <row r="2252" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>250.1024283280122</v>
+        <v>250.1024283280121</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18455,7 +18455,7 @@
         <v>2264</v>
       </c>
       <c r="B2264">
-        <v>454.9693418386457</v>
+        <v>454.9693418386456</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>554.9300117052574</v>
+        <v>554.9300117052572</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18471,7 +18471,7 @@
         <v>2266</v>
       </c>
       <c r="B2266">
-        <v>435.5152862923056</v>
+        <v>435.5152862923055</v>
       </c>
     </row>
     <row r="2267" spans="1:2">
@@ -18479,7 +18479,7 @@
         <v>2267</v>
       </c>
       <c r="B2267">
-        <v>556.2546928000066</v>
+        <v>556.2546928000065</v>
       </c>
     </row>
     <row r="2268" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>846.7941193537667</v>
+        <v>846.7941193537666</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>640.2341989284151</v>
+        <v>640.234198928415</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>654.2986780737731</v>
+        <v>654.298678073773</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19679,7 +19679,7 @@
         <v>2417</v>
       </c>
       <c r="B2417">
-        <v>436.907373725947</v>
+        <v>436.9073737259469</v>
       </c>
     </row>
     <row r="2418" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>457.8502301486867</v>
+        <v>457.8502301486866</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19863,7 +19863,7 @@
         <v>2440</v>
       </c>
       <c r="B2440">
-        <v>842.6906031460591</v>
+        <v>842.6906031460589</v>
       </c>
     </row>
     <row r="2441" spans="1:2">
@@ -19871,7 +19871,7 @@
         <v>2441</v>
       </c>
       <c r="B2441">
-        <v>868.8882232919967</v>
+        <v>868.8882232919966</v>
       </c>
     </row>
     <row r="2442" spans="1:2">
@@ -19879,7 +19879,7 @@
         <v>2442</v>
       </c>
       <c r="B2442">
-        <v>866.596407769665</v>
+        <v>866.5964077696649</v>
       </c>
     </row>
     <row r="2443" spans="1:2">
@@ -19887,7 +19887,7 @@
         <v>2443</v>
       </c>
       <c r="B2443">
-        <v>990.4365058664032</v>
+        <v>990.436505866403</v>
       </c>
     </row>
     <row r="2444" spans="1:2">
@@ -19903,7 +19903,7 @@
         <v>2445</v>
       </c>
       <c r="B2445">
-        <v>968.7052883496644</v>
+        <v>968.7052883496642</v>
       </c>
     </row>
     <row r="2446" spans="1:2">
@@ -19911,7 +19911,7 @@
         <v>2446</v>
       </c>
       <c r="B2446">
-        <v>968.5235843056944</v>
+        <v>968.5235843056942</v>
       </c>
     </row>
     <row r="2447" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>535.0597952840182</v>
+        <v>535.059795284018</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20047,7 +20047,7 @@
         <v>2463</v>
       </c>
       <c r="B2463">
-        <v>645.8378051089317</v>
+        <v>645.8378051089315</v>
       </c>
     </row>
     <row r="2464" spans="1:2">
@@ -20231,7 +20231,7 @@
         <v>2486</v>
       </c>
       <c r="B2486">
-        <v>243.8488785050564</v>
+        <v>243.8488785050563</v>
       </c>
     </row>
     <row r="2487" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>454.9253811828465</v>
+        <v>454.9253811828464</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20439,7 +20439,7 @@
         <v>2512</v>
       </c>
       <c r="B2512">
-        <v>544.1391360617466</v>
+        <v>544.1391360617465</v>
       </c>
     </row>
     <row r="2513" spans="1:2">
@@ -20575,7 +20575,7 @@
         <v>2529</v>
       </c>
       <c r="B2529">
-        <v>369.5479262000234</v>
+        <v>369.5479262000233</v>
       </c>
     </row>
     <row r="2530" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>708.2999476575126</v>
+        <v>708.2999476575125</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20607,7 +20607,7 @@
         <v>2533</v>
       </c>
       <c r="B2533">
-        <v>915.492379859924</v>
+        <v>915.4923798599236</v>
       </c>
     </row>
     <row r="2534" spans="1:2">
@@ -20759,7 +20759,7 @@
         <v>2552</v>
       </c>
       <c r="B2552">
-        <v>247.4372403024259</v>
+        <v>247.4372403024258</v>
       </c>
     </row>
     <row r="2553" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>82.79872291364194</v>
+        <v>82.79872291364192</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20791,7 +20791,7 @@
         <v>2556</v>
       </c>
       <c r="B2556">
-        <v>91.10640764657509</v>
+        <v>91.10640764657508</v>
       </c>
     </row>
     <row r="2557" spans="1:2">
@@ -21015,7 +21015,7 @@
         <v>2584</v>
       </c>
       <c r="B2584">
-        <v>99.24645574539396</v>
+        <v>99.24645574539394</v>
       </c>
     </row>
     <row r="2585" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>191.6151203554835</v>
+        <v>191.6151203554834</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21391,7 +21391,7 @@
         <v>2631</v>
       </c>
       <c r="B2631">
-        <v>653.6890903133575</v>
+        <v>653.6890903133574</v>
       </c>
     </row>
     <row r="2632" spans="1:2">
@@ -21399,7 +21399,7 @@
         <v>2632</v>
       </c>
       <c r="B2632">
-        <v>643.0476808995641</v>
+        <v>643.0476808995639</v>
       </c>
     </row>
     <row r="2633" spans="1:2">
@@ -21567,7 +21567,7 @@
         <v>2653</v>
       </c>
       <c r="B2653">
-        <v>78.76049707192726</v>
+        <v>78.76049707192725</v>
       </c>
     </row>
     <row r="2654" spans="1:2">
@@ -22199,7 +22199,7 @@
         <v>2732</v>
       </c>
       <c r="B2732">
-        <v>245.9000827046472</v>
+        <v>245.9000827046471</v>
       </c>
     </row>
     <row r="2733" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>193.8207729924488</v>
+        <v>193.8207729924487</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>91.21162014945452</v>
+        <v>91.2116201494545</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>815.1126184080265</v>
+        <v>815.1126184080264</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22567,7 +22567,7 @@
         <v>2778</v>
       </c>
       <c r="B2778">
-        <v>824.206612737688</v>
+        <v>824.2066127376879</v>
       </c>
     </row>
     <row r="2779" spans="1:2">
@@ -22575,7 +22575,7 @@
         <v>2779</v>
       </c>
       <c r="B2779">
-        <v>516.3208330720117</v>
+        <v>516.3208330720116</v>
       </c>
     </row>
     <row r="2780" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>369.6175320370606</v>
+        <v>369.6175320370605</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22735,7 +22735,7 @@
         <v>2799</v>
       </c>
       <c r="B2799">
-        <v>347.6525889016343</v>
+        <v>347.6525889016342</v>
       </c>
     </row>
     <row r="2800" spans="1:2">
@@ -23087,7 +23087,7 @@
         <v>2843</v>
       </c>
       <c r="B2843">
-        <v>509.9523994019007</v>
+        <v>509.9523994019006</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>697.3302986804184</v>
+        <v>697.3302986804183</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23135,7 +23135,7 @@
         <v>2849</v>
       </c>
       <c r="B2849">
-        <v>909.5401070647119</v>
+        <v>909.5401070647118</v>
       </c>
     </row>
     <row r="2850" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>475.5767344969818</v>
+        <v>475.5767344969817</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23303,7 +23303,7 @@
         <v>2870</v>
       </c>
       <c r="B2870">
-        <v>1226.294374618642</v>
+        <v>1226.294374618641</v>
       </c>
     </row>
     <row r="2871" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>82.58478105541916</v>
+        <v>82.58478105541914</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>452.3346332010802</v>
+        <v>452.3346332010801</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>671.2528376603319</v>
+        <v>671.2528376603318</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23655,7 +23655,7 @@
         <v>2914</v>
       </c>
       <c r="B2914">
-        <v>2394.317118103526</v>
+        <v>2394.317118103525</v>
       </c>
     </row>
     <row r="2915" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>3050.956202877841</v>
+        <v>3050.95620287784</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23791,7 +23791,7 @@
         <v>2931</v>
       </c>
       <c r="B2931">
-        <v>432.9186768897661</v>
+        <v>432.918676889766</v>
       </c>
     </row>
     <row r="2932" spans="1:2">
@@ -23799,7 +23799,7 @@
         <v>2932</v>
       </c>
       <c r="B2932">
-        <v>446.2035870722849</v>
+        <v>446.2035870722848</v>
       </c>
     </row>
     <row r="2933" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>225.4736174520287</v>
+        <v>225.4736174520286</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>844.8648678747837</v>
+        <v>844.8648678747836</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>678.3400573598637</v>
+        <v>678.3400573598636</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -24055,7 +24055,7 @@
         <v>2964</v>
       </c>
       <c r="B2964">
-        <v>555.5249459137399</v>
+        <v>555.5249459137398</v>
       </c>
     </row>
     <row r="2965" spans="1:2">
@@ -24103,7 +24103,7 @@
         <v>2970</v>
       </c>
       <c r="B2970">
-        <v>78.50611141036921</v>
+        <v>78.5061114103692</v>
       </c>
     </row>
     <row r="2971" spans="1:2">
@@ -24495,7 +24495,7 @@
         <v>3019</v>
       </c>
       <c r="B3019">
-        <v>1034.663856310787</v>
+        <v>1034.663856310786</v>
       </c>
     </row>
     <row r="3020" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>836.618171224996</v>
+        <v>836.6181712249959</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24839,7 +24839,7 @@
         <v>3062</v>
       </c>
       <c r="B3062">
-        <v>2087.064664952397</v>
+        <v>2087.064664952396</v>
       </c>
     </row>
     <row r="3063" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>1135.542659127317</v>
+        <v>1135.542659127316</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>899.3705420231632</v>
+        <v>899.3705420231631</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>641.303908219529</v>
+        <v>641.3039082195289</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>841.5340451833482</v>
+        <v>841.5340451833481</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -25455,7 +25455,7 @@
         <v>3139</v>
       </c>
       <c r="B3139">
-        <v>518.2257948233105</v>
+        <v>518.2257948233104</v>
       </c>
     </row>
     <row r="3140" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>655.0284249600398</v>
+        <v>655.0284249600397</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>356.8960494610131</v>
+        <v>356.896049461013</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25623,7 +25623,7 @@
         <v>3160</v>
       </c>
       <c r="B3160">
-        <v>2533.07160135774</v>
+        <v>2533.071601357739</v>
       </c>
     </row>
     <row r="3161" spans="1:2">
@@ -25639,7 +25639,7 @@
         <v>3162</v>
       </c>
       <c r="B3162">
-        <v>2814.560472571189</v>
+        <v>2814.560472571188</v>
       </c>
     </row>
     <row r="3163" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>1925.142623020965</v>
+        <v>1925.142623020964</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>2850.461674807204</v>
+        <v>2850.461674807203</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25903,7 +25903,7 @@
         <v>3195</v>
       </c>
       <c r="B3195">
-        <v>188.6398631709935</v>
+        <v>188.6398631709934</v>
       </c>
     </row>
     <row r="3196" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>91.76669669667911</v>
+        <v>91.76669669667908</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25935,7 +25935,7 @@
         <v>3199</v>
       </c>
       <c r="B3199">
-        <v>202.9423159997445</v>
+        <v>202.9423159997444</v>
       </c>
     </row>
     <row r="3200" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>561.954865887762</v>
+        <v>561.9548658877619</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>234.7443336180031</v>
+        <v>234.744333618003</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>653.1779908339103</v>
+        <v>653.1779908339101</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>844.6068126707506</v>
+        <v>844.6068126707505</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>806.9857585059474</v>
+        <v>806.9857585059473</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26255,7 +26255,7 @@
         <v>3239</v>
       </c>
       <c r="B3239">
-        <v>90.4672197112547</v>
+        <v>90.46721971125469</v>
       </c>
     </row>
     <row r="3240" spans="1:2">
@@ -26815,7 +26815,7 @@
         <v>3309</v>
       </c>
       <c r="B3309">
-        <v>91.03020917652314</v>
+        <v>91.03020917652312</v>
       </c>
     </row>
     <row r="3310" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>99.09083502386478</v>
+        <v>99.09083502386476</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -26983,7 +26983,7 @@
         <v>3330</v>
       </c>
       <c r="B3330">
-        <v>336.6975934764732</v>
+        <v>336.6975934764731</v>
       </c>
     </row>
     <row r="3331" spans="1:2">
@@ -27319,7 +27319,7 @@
         <v>3372</v>
       </c>
       <c r="B3372">
-        <v>249.3389782722994</v>
+        <v>249.3389782722993</v>
       </c>
     </row>
     <row r="3373" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>354.8416214799971</v>
+        <v>354.841621479997</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>454.4271604171222</v>
+        <v>454.4271604171221</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>823.3713602775032</v>
+        <v>823.3713602775031</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27559,7 +27559,7 @@
         <v>3402</v>
       </c>
       <c r="B3402">
-        <v>680.8978055426768</v>
+        <v>680.8978055426767</v>
       </c>
     </row>
     <row r="3403" spans="1:2">
@@ -27703,7 +27703,7 @@
         <v>3420</v>
       </c>
       <c r="B3420">
-        <v>1095.093477938492</v>
+        <v>1095.093477938491</v>
       </c>
     </row>
     <row r="3421" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>1934.25127090256</v>
+        <v>1934.251270902559</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28143,7 +28143,7 @@
         <v>3475</v>
       </c>
       <c r="B3475">
-        <v>1562.347053551699</v>
+        <v>1562.347053551698</v>
       </c>
     </row>
     <row r="3476" spans="1:2">
@@ -28167,7 +28167,7 @@
         <v>3478</v>
       </c>
       <c r="B3478">
-        <v>1162.788652992754</v>
+        <v>1162.788652992753</v>
       </c>
     </row>
     <row r="3479" spans="1:2">
@@ -28175,7 +28175,7 @@
         <v>3479</v>
       </c>
       <c r="B3479">
-        <v>985.1084743835398</v>
+        <v>985.1084743835396</v>
       </c>
     </row>
     <row r="3480" spans="1:2">
@@ -28375,7 +28375,7 @@
         <v>3504</v>
       </c>
       <c r="B3504">
-        <v>1530.437478862252</v>
+        <v>1530.437478862251</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -28383,7 +28383,7 @@
         <v>3505</v>
       </c>
       <c r="B3505">
-        <v>1535.258497448231</v>
+        <v>1535.25849744823</v>
       </c>
     </row>
     <row r="3506" spans="1:2">
@@ -28919,7 +28919,7 @@
         <v>3572</v>
       </c>
       <c r="B3572">
-        <v>1930.801824777516</v>
+        <v>1930.801824777515</v>
       </c>
     </row>
     <row r="3573" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>2972.167336529371</v>
+        <v>2972.16733652937</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>2964.551299447679</v>
+        <v>2964.551299447678</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>2201.428604085059</v>
+        <v>2201.428604085058</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29503,7 +29503,7 @@
         <v>3645</v>
       </c>
       <c r="B3645">
-        <v>1213.753706615962</v>
+        <v>1213.753706615961</v>
       </c>
     </row>
     <row r="3646" spans="1:2">
@@ -29519,7 +29519,7 @@
         <v>3647</v>
       </c>
       <c r="B3647">
-        <v>613.5911108037122</v>
+        <v>613.5911108037121</v>
       </c>
     </row>
     <row r="3648" spans="1:2">
@@ -29543,7 +29543,7 @@
         <v>3650</v>
       </c>
       <c r="B3650">
-        <v>921.8637442404216</v>
+        <v>921.8637442404214</v>
       </c>
     </row>
     <row r="3651" spans="1:2">
@@ -29583,7 +29583,7 @@
         <v>3655</v>
       </c>
       <c r="B3655">
-        <v>391.8594243733116</v>
+        <v>391.8594243733115</v>
       </c>
     </row>
     <row r="3656" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>841.3659220513098</v>
+        <v>841.3659220513097</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29783,7 +29783,7 @@
         <v>3680</v>
       </c>
       <c r="B3680">
-        <v>606.9061604118469</v>
+        <v>606.9061604118468</v>
       </c>
     </row>
     <row r="3681" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>837.0812234660809</v>
+        <v>837.0812234660808</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>1309.162983252163</v>
+        <v>1309.162983252162</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>1267.619079159074</v>
+        <v>1267.619079159073</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30519,7 +30519,7 @@
         <v>3772</v>
       </c>
       <c r="B3772">
-        <v>2495.725558901125</v>
+        <v>2495.725558901124</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30535,7 +30535,7 @@
         <v>3774</v>
       </c>
       <c r="B3774">
-        <v>2473.144728443307</v>
+        <v>2473.144728443306</v>
       </c>
     </row>
     <row r="3775" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>3416.397969369388</v>
+        <v>3416.397969369387</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>3168.27377055234</v>
+        <v>3168.273770552339</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>1770.998979526644</v>
+        <v>1770.998979526643</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30887,7 +30887,7 @@
         <v>3818</v>
       </c>
       <c r="B3818">
-        <v>194.5083176491483</v>
+        <v>194.5083176491482</v>
       </c>
     </row>
     <row r="3819" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>254.1342066068763</v>
+        <v>254.1342066068762</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>92.77544721175146</v>
+        <v>92.77544721175144</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>593.8381227979376</v>
+        <v>593.8381227979374</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31263,7 +31263,7 @@
         <v>3865</v>
       </c>
       <c r="B3865">
-        <v>748.8609794082428</v>
+        <v>748.8609794082427</v>
       </c>
     </row>
     <row r="3866" spans="1:2">
@@ -31343,7 +31343,7 @@
         <v>3875</v>
       </c>
       <c r="B3875">
-        <v>1611.226613663793</v>
+        <v>1611.226613663792</v>
       </c>
     </row>
     <row r="3876" spans="1:2">
@@ -31535,7 +31535,7 @@
         <v>3899</v>
       </c>
       <c r="B3899">
-        <v>2241.552373846107</v>
+        <v>2241.552373846106</v>
       </c>
     </row>
     <row r="3900" spans="1:2">
@@ -31807,7 +31807,7 @@
         <v>3933</v>
       </c>
       <c r="B3933">
-        <v>2337.637179226422</v>
+        <v>2337.637179226421</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>3046.330428217818</v>
+        <v>3046.330428217817</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -32079,7 +32079,7 @@
         <v>3967</v>
       </c>
       <c r="B3967">
-        <v>3045.07989409585</v>
+        <v>3045.079894095849</v>
       </c>
     </row>
     <row r="3968" spans="1:2">
@@ -32103,7 +32103,7 @@
         <v>3970</v>
       </c>
       <c r="B3970">
-        <v>3864.146920028534</v>
+        <v>3864.146920028533</v>
       </c>
     </row>
     <row r="3971" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>2474.935099418489</v>
+        <v>2474.935099418488</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32255,7 +32255,7 @@
         <v>3989</v>
       </c>
       <c r="B3989">
-        <v>2444.417612162683</v>
+        <v>2444.417612162682</v>
       </c>
     </row>
     <row r="3990" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>3166.310194593309</v>
+        <v>3166.310194593308</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>2528.279889875627</v>
+        <v>2528.279889875626</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32423,7 +32423,7 @@
         <v>4010</v>
       </c>
       <c r="B4010">
-        <v>2106.626863712003</v>
+        <v>2106.626863712002</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>2065.933949993875</v>
+        <v>2065.933949993874</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>2438.110723410691</v>
+        <v>2438.11072341069</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -32479,7 +32479,7 @@
         <v>4017</v>
       </c>
       <c r="B4017">
-        <v>2537.986402676091</v>
+        <v>2537.98640267609</v>
       </c>
     </row>
     <row r="4018" spans="1:2">
@@ -32599,7 +32599,7 @@
         <v>4032</v>
       </c>
       <c r="B4032">
-        <v>1857.5076887187</v>
+        <v>1857.507688718699</v>
       </c>
     </row>
     <row r="4033" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>2493.941049346716</v>
+        <v>2493.941049346715</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32751,7 +32751,7 @@
         <v>4051</v>
       </c>
       <c r="B4051">
-        <v>2800.100347523638</v>
+        <v>2800.100347523637</v>
       </c>
     </row>
     <row r="4052" spans="1:2">
@@ -32775,7 +32775,7 @@
         <v>4054</v>
       </c>
       <c r="B4054">
-        <v>2254.730313099514</v>
+        <v>2254.730313099513</v>
       </c>
     </row>
     <row r="4055" spans="1:2">
@@ -32799,7 +32799,7 @@
         <v>4057</v>
       </c>
       <c r="B4057">
-        <v>2250.205296262583</v>
+        <v>2250.205296262582</v>
       </c>
     </row>
     <row r="4058" spans="1:2">
@@ -32959,7 +32959,7 @@
         <v>4077</v>
       </c>
       <c r="B4077">
-        <v>2619.756153172993</v>
+        <v>2619.756153172992</v>
       </c>
     </row>
     <row r="4078" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>3007.70864752991</v>
+        <v>3007.708647529909</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>2132.294025277964</v>
+        <v>2132.294025277963</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>2043.297142967673</v>
+        <v>2043.297142967672</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33383,7 +33383,7 @@
         <v>4130</v>
       </c>
       <c r="B4130">
-        <v>2165.334854176644</v>
+        <v>2165.334854176643</v>
       </c>
     </row>
     <row r="4131" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>2814.384629947992</v>
+        <v>2814.384629947991</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>2330.04957003548</v>
+        <v>2330.049570035479</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33903,7 +33903,7 @@
         <v>4195</v>
       </c>
       <c r="B4195">
-        <v>3287.23130514498</v>
+        <v>3287.231305144979</v>
       </c>
     </row>
     <row r="4196" spans="1:2">
@@ -33935,7 +33935,7 @@
         <v>4199</v>
       </c>
       <c r="B4199">
-        <v>2849.960523331093</v>
+        <v>2849.960523331092</v>
       </c>
     </row>
     <row r="4200" spans="1:2">
@@ -34007,7 +34007,7 @@
         <v>4208</v>
       </c>
       <c r="B4208">
-        <v>2815.066899325996</v>
+        <v>2815.066899325995</v>
       </c>
     </row>
     <row r="4209" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>2744.246868975559</v>
+        <v>2744.246868975558</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34055,7 +34055,7 @@
         <v>4214</v>
       </c>
       <c r="B4214">
-        <v>2184.376851842626</v>
+        <v>2184.376851842625</v>
       </c>
     </row>
     <row r="4215" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>916.711555380755</v>
+        <v>916.7115553807548</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34159,7 +34159,7 @@
         <v>4227</v>
       </c>
       <c r="B4227">
-        <v>923.0389591054536</v>
+        <v>923.0389591054534</v>
       </c>
     </row>
     <row r="4228" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>1032.554037903464</v>
+        <v>1032.554037903463</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>1484.184216248914</v>
+        <v>1484.184216248913</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>2337.39246490914</v>
+        <v>2337.392464909139</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>2593.632386928798</v>
+        <v>2593.632386928797</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>1878.289356070176</v>
+        <v>1878.289356070175</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34695,7 +34695,7 @@
         <v>4294</v>
       </c>
       <c r="B4294">
-        <v>2163.787439092512</v>
+        <v>2163.787439092511</v>
       </c>
     </row>
     <row r="4295" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>2112.731533447319</v>
+        <v>2112.731533447318</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>1876.527999127821</v>
+        <v>1876.52799912782</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>1797.732919673332</v>
+        <v>1797.732919673331</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -35023,7 +35023,7 @@
         <v>4335</v>
       </c>
       <c r="B4335">
-        <v>3003.59715392853</v>
+        <v>3003.597153928529</v>
       </c>
     </row>
     <row r="4336" spans="1:2">
@@ -35127,7 +35127,7 @@
         <v>4348</v>
       </c>
       <c r="B4348">
-        <v>2328.56076915908</v>
+        <v>2328.560769159079</v>
       </c>
     </row>
     <row r="4349" spans="1:2">
@@ -35431,7 +35431,7 @@
         <v>4386</v>
       </c>
       <c r="B4386">
-        <v>5005.770568751243</v>
+        <v>5005.770568751242</v>
       </c>
     </row>
     <row r="4387" spans="1:2">
@@ -35463,7 +35463,7 @@
         <v>4390</v>
       </c>
       <c r="B4390">
-        <v>2844.031696218974</v>
+        <v>2844.031696218973</v>
       </c>
     </row>
     <row r="4391" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>3055.259716623752</v>
+        <v>3055.259716623751</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35623,7 +35623,7 @@
         <v>4410</v>
       </c>
       <c r="B4410">
-        <v>3186.62001757254</v>
+        <v>3186.620017572539</v>
       </c>
     </row>
     <row r="4411" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>2851.721880273448</v>
+        <v>2851.721880273447</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>2524.587194788494</v>
+        <v>2524.587194788493</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35767,7 +35767,7 @@
         <v>4428</v>
       </c>
       <c r="B4428">
-        <v>2380.618977756495</v>
+        <v>2380.618977756494</v>
       </c>
     </row>
     <row r="4429" spans="1:2">
@@ -35831,7 +35831,7 @@
         <v>4436</v>
       </c>
       <c r="B4436">
-        <v>2326.500479757291</v>
+        <v>2326.50047975729</v>
       </c>
     </row>
     <row r="4437" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>2390.858586776284</v>
+        <v>2390.858586776283</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>2789.747613082926</v>
+        <v>2789.747613082925</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>3003.416329097676</v>
+        <v>3003.416329097675</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -35975,7 +35975,7 @@
         <v>4454</v>
       </c>
       <c r="B4454">
-        <v>3002.936571807387</v>
+        <v>3002.936571807386</v>
       </c>
     </row>
     <row r="4455" spans="1:2">
@@ -36063,7 +36063,7 @@
         <v>4465</v>
       </c>
       <c r="B4465">
-        <v>2334.243416598724</v>
+        <v>2334.243416598723</v>
       </c>
     </row>
     <row r="4466" spans="1:2">
@@ -36103,7 +36103,7 @@
         <v>4470</v>
       </c>
       <c r="B4470">
-        <v>1975.356535572084</v>
+        <v>1975.356535572083</v>
       </c>
     </row>
     <row r="4471" spans="1:2">
@@ -36215,7 +36215,7 @@
         <v>4484</v>
       </c>
       <c r="B4484">
-        <v>2515.953321989531</v>
+        <v>2515.95332198953</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>3356.777062619317</v>
+        <v>3356.777062619316</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>3607.733793025027</v>
+        <v>3607.733793025026</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36663,7 +36663,7 @@
         <v>4540</v>
       </c>
       <c r="B4540">
-        <v>2431.0723293462</v>
+        <v>2431.072329346199</v>
       </c>
     </row>
     <row r="4541" spans="1:2">
@@ -37311,7 +37311,7 @@
         <v>4621</v>
       </c>
       <c r="B4621">
-        <v>2696.589708165721</v>
+        <v>2696.58970816572</v>
       </c>
     </row>
     <row r="4622" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>2306.707634090258</v>
+        <v>2306.707634090257</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37439,7 +37439,7 @@
         <v>4637</v>
       </c>
       <c r="B4637">
-        <v>2892.020320373537</v>
+        <v>2892.020320373536</v>
       </c>
     </row>
     <row r="4638" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>2997.658655472135</v>
+        <v>2997.658655472134</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>3634.268737936464</v>
+        <v>3634.268737936463</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>2439.710891281782</v>
+        <v>2439.710891281781</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37591,7 +37591,7 @@
         <v>4656</v>
       </c>
       <c r="B4656">
-        <v>2232.281071538055</v>
+        <v>2232.281071538054</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37719,7 +37719,7 @@
         <v>4672</v>
       </c>
       <c r="B4672">
-        <v>2353.266657718232</v>
+        <v>2353.266657718231</v>
       </c>
     </row>
     <row r="4673" spans="1:2">
@@ -37791,7 +37791,7 @@
         <v>4681</v>
       </c>
       <c r="B4681">
-        <v>1721.850966343136</v>
+        <v>1721.850966343135</v>
       </c>
     </row>
     <row r="4682" spans="1:2">
@@ -38015,7 +38015,7 @@
         <v>4709</v>
       </c>
       <c r="B4709">
-        <v>1593.987002885578</v>
+        <v>1593.987002885577</v>
       </c>
     </row>
     <row r="4710" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>2302.577383942404</v>
+        <v>2302.577383942403</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38479,7 +38479,7 @@
         <v>4767</v>
       </c>
       <c r="B4767">
-        <v>3062.663277202415</v>
+        <v>3062.663277202414</v>
       </c>
     </row>
     <row r="4768" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>3149.982620887408</v>
+        <v>3149.982620887407</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38551,7 +38551,7 @@
         <v>4776</v>
       </c>
       <c r="B4776">
-        <v>2771.605050434596</v>
+        <v>2771.605050434595</v>
       </c>
     </row>
     <row r="4777" spans="1:2">
@@ -38575,7 +38575,7 @@
         <v>4779</v>
       </c>
       <c r="B4779">
-        <v>2772.528224206379</v>
+        <v>2772.528224206378</v>
       </c>
     </row>
     <row r="4780" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>3257.620872753831</v>
+        <v>3257.62087275383</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>2801.732753208982</v>
+        <v>2801.732753208981</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>3734.622709136959</v>
+        <v>3734.622709136958</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>3907.713981422814</v>
+        <v>3907.713981422813</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38863,7 +38863,7 @@
         <v>4815</v>
       </c>
       <c r="B4815">
-        <v>3854.434252736259</v>
+        <v>3854.434252736258</v>
       </c>
     </row>
     <row r="4816" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>3088.558448036454</v>
+        <v>3088.558448036453</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>2776.455376124441</v>
+        <v>2776.45537612444</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -39007,7 +39007,7 @@
         <v>4833</v>
       </c>
       <c r="B4833">
-        <v>3436.023471473345</v>
+        <v>3436.023471473344</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39095,7 +39095,7 @@
         <v>4844</v>
       </c>
       <c r="B4844">
-        <v>3506.213985232737</v>
+        <v>3506.213985232736</v>
       </c>
     </row>
     <row r="4845" spans="1:2">
@@ -39159,7 +39159,7 @@
         <v>4852</v>
       </c>
       <c r="B4852">
-        <v>2926.709966935726</v>
+        <v>2926.709966935725</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>3294.675309526978</v>
+        <v>3294.675309526977</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>3506.389827855934</v>
+        <v>3506.389827855933</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39335,7 +39335,7 @@
         <v>4874</v>
       </c>
       <c r="B4874">
-        <v>2883.684207749854</v>
+        <v>2883.684207749853</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39471,7 +39471,7 @@
         <v>4891</v>
       </c>
       <c r="B4891">
-        <v>3683.932263076977</v>
+        <v>3683.932263076976</v>
       </c>
     </row>
     <row r="4892" spans="1:2">
@@ -39495,7 +39495,7 @@
         <v>4894</v>
       </c>
       <c r="B4894">
-        <v>3088.382605413257</v>
+        <v>3088.382605413256</v>
       </c>
     </row>
     <row r="4895" spans="1:2">
@@ -39991,7 +39991,7 @@
         <v>4956</v>
       </c>
       <c r="B4956">
-        <v>3594.847459455088</v>
+        <v>3594.847459455087</v>
       </c>
     </row>
     <row r="4957" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>2279.695276456842</v>
+        <v>2279.695276456841</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40239,7 +40239,7 @@
         <v>4987</v>
       </c>
       <c r="B4987">
-        <v>1757.130857977189</v>
+        <v>1757.130857977188</v>
       </c>
     </row>
     <row r="4988" spans="1:2">
@@ -40263,7 +40263,7 @@
         <v>4990</v>
       </c>
       <c r="B4990">
-        <v>1631.083934959331</v>
+        <v>1631.08393495933</v>
       </c>
     </row>
     <row r="4991" spans="1:2">
@@ -40335,7 +40335,7 @@
         <v>4999</v>
       </c>
       <c r="B4999">
-        <v>1759.83883437442</v>
+        <v>1759.838834374419</v>
       </c>
     </row>
     <row r="5000" spans="1:2">
@@ -40359,7 +40359,7 @@
         <v>5002</v>
       </c>
       <c r="B5002">
-        <v>2097.817148289843</v>
+        <v>2097.817148289842</v>
       </c>
     </row>
     <row r="5003" spans="1:2">
@@ -40407,7 +40407,7 @@
         <v>5008</v>
       </c>
       <c r="B5008">
-        <v>2075.165687711708</v>
+        <v>2075.165687711707</v>
       </c>
     </row>
     <row r="5009" spans="1:2">
@@ -40591,7 +40591,7 @@
         <v>5031</v>
       </c>
       <c r="B5031">
-        <v>1920.441763560837</v>
+        <v>1920.441763560836</v>
       </c>
     </row>
     <row r="5032" spans="1:2">
@@ -40887,7 +40887,7 @@
         <v>5068</v>
       </c>
       <c r="B5068">
-        <v>2104.704024627346</v>
+        <v>2104.704024627345</v>
       </c>
     </row>
     <row r="5069" spans="1:2">
@@ -40943,7 +40943,7 @@
         <v>5075</v>
       </c>
       <c r="B5075">
-        <v>2922.75966240561</v>
+        <v>2922.759662405609</v>
       </c>
     </row>
     <row r="5076" spans="1:2">
@@ -40983,7 +40983,7 @@
         <v>5080</v>
       </c>
       <c r="B5080">
-        <v>2606.355773001242</v>
+        <v>2606.355773001241</v>
       </c>
     </row>
     <row r="5081" spans="1:2">
@@ -41135,7 +41135,7 @@
         <v>5099</v>
       </c>
       <c r="B5099">
-        <v>3073.792356824541</v>
+        <v>3073.79235682454</v>
       </c>
     </row>
     <row r="5100" spans="1:2">
@@ -41295,7 +41295,7 @@
         <v>5119</v>
       </c>
       <c r="B5119">
-        <v>2946.613007313295</v>
+        <v>2946.613007313294</v>
       </c>
     </row>
     <row r="5120" spans="1:2">
@@ -41703,7 +41703,7 @@
         <v>5170</v>
       </c>
       <c r="B5170">
-        <v>3088.148148582328</v>
+        <v>3088.148148582327</v>
       </c>
     </row>
     <row r="5171" spans="1:2">
@@ -41807,7 +41807,7 @@
         <v>5183</v>
       </c>
       <c r="B5183">
-        <v>2799.001331128658</v>
+        <v>2799.001331128657</v>
       </c>
     </row>
     <row r="5184" spans="1:2">
@@ -41863,7 +41863,7 @@
         <v>5190</v>
       </c>
       <c r="B5190">
-        <v>2675.395689862849</v>
+        <v>2675.395689862848</v>
       </c>
     </row>
     <row r="5191" spans="1:2">
@@ -41999,7 +41999,7 @@
         <v>5207</v>
       </c>
       <c r="B5207">
-        <v>640.2635060322813</v>
+        <v>640.2635060322812</v>
       </c>
     </row>
     <row r="5208" spans="1:2">
@@ -42015,7 +42015,7 @@
         <v>5209</v>
       </c>
       <c r="B5209">
-        <v>436.0369527411228</v>
+        <v>436.0369527411227</v>
       </c>
     </row>
     <row r="5210" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>298.3495411386748</v>
+        <v>298.3495411386747</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42167,7 +42167,7 @@
         <v>5228</v>
       </c>
       <c r="B5228">
-        <v>708.7776534505306</v>
+        <v>708.7776534505305</v>
       </c>
     </row>
     <row r="5229" spans="1:2">
@@ -42215,7 +42215,7 @@
         <v>5234</v>
       </c>
       <c r="B5234">
-        <v>248.646158336904</v>
+        <v>248.6461583369039</v>
       </c>
     </row>
     <row r="5235" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>82.69204505556921</v>
+        <v>82.6920450555692</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -42383,7 +42383,7 @@
         <v>5255</v>
       </c>
       <c r="B5255">
-        <v>900.6659160140464</v>
+        <v>900.6659160140463</v>
       </c>
     </row>
     <row r="5256" spans="1:2">
@@ -42399,7 +42399,7 @@
         <v>5257</v>
       </c>
       <c r="B5257">
-        <v>859.750268306536</v>
+        <v>859.7502683065359</v>
       </c>
     </row>
     <row r="5258" spans="1:2">
@@ -42447,7 +42447,7 @@
         <v>5263</v>
       </c>
       <c r="B5263">
-        <v>1582.475289715376</v>
+        <v>1582.475289715375</v>
       </c>
     </row>
     <row r="5264" spans="1:2">
@@ -42567,7 +42567,7 @@
         <v>5278</v>
       </c>
       <c r="B5278">
-        <v>915.3429136302066</v>
+        <v>915.3429136302065</v>
       </c>
     </row>
     <row r="5279" spans="1:2">
@@ -42807,7 +42807,7 @@
         <v>5308</v>
       </c>
       <c r="B5308">
-        <v>1675.990331000293</v>
+        <v>1675.990331000292</v>
       </c>
     </row>
     <row r="5309" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>2381.430784533587</v>
+        <v>2381.430784533586</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43111,7 +43111,7 @@
         <v>5346</v>
       </c>
       <c r="B5346">
-        <v>3161.972743221121</v>
+        <v>3161.97274322112</v>
       </c>
     </row>
     <row r="5347" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>2906.315153355283</v>
+        <v>2906.315153355282</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43487,7 +43487,7 @@
         <v>5393</v>
       </c>
       <c r="B5393">
-        <v>3130.174535526365</v>
+        <v>3130.174535526364</v>
       </c>
     </row>
     <row r="5394" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>3378.93880149185</v>
+        <v>3378.938801491849</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>1588.556689610222</v>
+        <v>1588.556689610221</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>3417.17695219015</v>
+        <v>3417.176952190149</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>2804.294194086882</v>
+        <v>2804.294194086881</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>2085.971216907152</v>
+        <v>2085.971216907151</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44615,7 +44615,7 @@
         <v>5534</v>
       </c>
       <c r="B5534">
-        <v>2678.704461889336</v>
+        <v>2678.704461889335</v>
       </c>
     </row>
     <row r="5535" spans="1:2">
@@ -44647,7 +44647,7 @@
         <v>5538</v>
       </c>
       <c r="B5538">
-        <v>2715.528837897134</v>
+        <v>2715.528837897133</v>
       </c>
     </row>
     <row r="5539" spans="1:2">
@@ -44671,7 +44671,7 @@
         <v>5541</v>
       </c>
       <c r="B5541">
-        <v>2270.503396400268</v>
+        <v>2270.503396400267</v>
       </c>
     </row>
     <row r="5542" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>2832.034540180333</v>
+        <v>2832.034540180332</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>2630.626157996942</v>
+        <v>2630.626157996941</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>2205.847529205995</v>
+        <v>2205.847529205994</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45295,7 +45295,7 @@
         <v>5619</v>
       </c>
       <c r="B5619">
-        <v>560.1701218765222</v>
+        <v>560.1701218765221</v>
       </c>
     </row>
     <row r="5620" spans="1:2">
@@ -45607,7 +45607,7 @@
         <v>5658</v>
       </c>
       <c r="B5658">
-        <v>1668.356709656281</v>
+        <v>1668.35670965628</v>
       </c>
     </row>
     <row r="5659" spans="1:2">
@@ -45631,7 +45631,7 @@
         <v>5661</v>
       </c>
       <c r="B5661">
-        <v>1259.478650067905</v>
+        <v>1259.478650067904</v>
       </c>
     </row>
     <row r="5662" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>891.4253861650542</v>
+        <v>891.4253861650541</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45663,7 +45663,7 @@
         <v>5665</v>
       </c>
       <c r="B5665">
-        <v>911.2809490343604</v>
+        <v>911.2809490343602</v>
       </c>
     </row>
     <row r="5666" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>2681.318655554195</v>
+        <v>2681.318655554194</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45991,7 +45991,7 @@
         <v>5706</v>
       </c>
       <c r="B5706">
-        <v>2898.279145475189</v>
+        <v>2898.279145475188</v>
       </c>
     </row>
     <row r="5707" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>2824.168806573701</v>
+        <v>2824.1688065737</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>2459.839010217043</v>
+        <v>2459.839010217042</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46183,7 +46183,7 @@
         <v>5730</v>
       </c>
       <c r="B5730">
-        <v>2491.962526764713</v>
+        <v>2491.962526764712</v>
       </c>
     </row>
     <row r="5731" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>2516.316143935394</v>
+        <v>2516.316143935393</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46495,7 +46495,7 @@
         <v>5769</v>
       </c>
       <c r="B5769">
-        <v>2724.086805297084</v>
+        <v>2724.086805297083</v>
       </c>
     </row>
     <row r="5770" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>1182.228054987161</v>
+        <v>1182.22805498716</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46623,7 +46623,7 @@
         <v>5785</v>
       </c>
       <c r="B5785">
-        <v>737.2963962226661</v>
+        <v>737.296396222666</v>
       </c>
     </row>
     <row r="5786" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>1479.822908894179</v>
+        <v>1479.822908894178</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46695,7 +46695,7 @@
         <v>5794</v>
       </c>
       <c r="B5794">
-        <v>1499.999882771585</v>
+        <v>1499.999882771584</v>
       </c>
     </row>
     <row r="5795" spans="1:2">
@@ -46719,7 +46719,7 @@
         <v>5797</v>
       </c>
       <c r="B5797">
-        <v>1544.175476870541</v>
+        <v>1544.17547687054</v>
       </c>
     </row>
     <row r="5798" spans="1:2">
@@ -46967,7 +46967,7 @@
         <v>5828</v>
       </c>
       <c r="B5828">
-        <v>2722.700286213177</v>
+        <v>2722.700286213176</v>
       </c>
     </row>
     <row r="5829" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>2496.481682180871</v>
+        <v>2496.48168218087</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>2279.468439472918</v>
+        <v>2279.468439472917</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47255,7 +47255,7 @@
         <v>5864</v>
       </c>
       <c r="B5864">
-        <v>2897.953836622275</v>
+        <v>2897.953836622274</v>
       </c>
     </row>
     <row r="5865" spans="1:2">
@@ -47263,7 +47263,7 @@
         <v>5865</v>
       </c>
       <c r="B5865">
-        <v>2803.734428403039</v>
+        <v>2803.734428403038</v>
       </c>
     </row>
     <row r="5866" spans="1:2">
@@ -47279,7 +47279,7 @@
         <v>5867</v>
       </c>
       <c r="B5867">
-        <v>3234.068218731812</v>
+        <v>3234.068218731811</v>
       </c>
     </row>
     <row r="5868" spans="1:2">
@@ -47295,7 +47295,7 @@
         <v>5869</v>
       </c>
       <c r="B5869">
-        <v>3050.576441425944</v>
+        <v>3050.576441425943</v>
       </c>
     </row>
     <row r="5870" spans="1:2">
@@ -47359,7 +47359,7 @@
         <v>5877</v>
       </c>
       <c r="B5877">
-        <v>2772.528224206379</v>
+        <v>2772.528224206378</v>
       </c>
     </row>
     <row r="5878" spans="1:2">
@@ -47439,7 +47439,7 @@
         <v>5887</v>
       </c>
       <c r="B5887">
-        <v>2267.051019564837</v>
+        <v>2267.051019564836</v>
       </c>
     </row>
     <row r="5888" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>1224.292541166224</v>
+        <v>1224.292541166223</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>680.2589106783951</v>
+        <v>680.258910678395</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47567,7 +47567,7 @@
         <v>5903</v>
       </c>
       <c r="B5903">
-        <v>445.3771267432599</v>
+        <v>445.3771267432598</v>
       </c>
     </row>
     <row r="5904" spans="1:2">
@@ -47631,7 +47631,7 @@
         <v>5911</v>
       </c>
       <c r="B5911">
-        <v>214.5022979700142</v>
+        <v>214.5022979700141</v>
       </c>
     </row>
     <row r="5912" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>842.8962891931228</v>
+        <v>842.8962891931227</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>1043.203008550055</v>
+        <v>1043.203008550054</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>717.9595690917905</v>
+        <v>717.9595690917904</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48207,7 +48207,7 @@
         <v>5983</v>
       </c>
       <c r="B5983">
-        <v>1557.053226389758</v>
+        <v>1557.053226389757</v>
       </c>
     </row>
     <row r="5984" spans="1:2">
@@ -48391,7 +48391,7 @@
         <v>6006</v>
       </c>
       <c r="B6006">
-        <v>1754.50787218117</v>
+        <v>1754.507872181169</v>
       </c>
     </row>
     <row r="6007" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>2328.320450907378</v>
+        <v>2328.320450907377</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48511,7 +48511,7 @@
         <v>6021</v>
       </c>
       <c r="B6021">
-        <v>2077.779881376567</v>
+        <v>2077.779881376566</v>
       </c>
     </row>
     <row r="6022" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>2073.527420605591</v>
+        <v>2073.52742060559</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>1833.516893493882</v>
+        <v>1833.516893493881</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>2080.698868921634</v>
+        <v>2080.698868921633</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>2046.453518054056</v>
+        <v>2046.453518054055</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48911,7 +48911,7 @@
         <v>6071</v>
       </c>
       <c r="B6071">
-        <v>2566.288272879617</v>
+        <v>2566.288272879616</v>
       </c>
     </row>
     <row r="6072" spans="1:2">
@@ -48919,7 +48919,7 @@
         <v>6072</v>
       </c>
       <c r="B6072">
-        <v>1744.508288342045</v>
+        <v>1744.508288342044</v>
       </c>
     </row>
     <row r="6073" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>2312.105416480323</v>
+        <v>2312.105416480322</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>1451.873925528305</v>
+        <v>1451.873925528304</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49111,7 +49111,7 @@
         <v>6096</v>
       </c>
       <c r="B6096">
-        <v>1336.699938044783</v>
+        <v>1336.699938044782</v>
       </c>
     </row>
     <row r="6097" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>1944.533668293993</v>
+        <v>1944.533668293992</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49279,7 +49279,7 @@
         <v>6117</v>
       </c>
       <c r="B6117">
-        <v>1876.683326778312</v>
+        <v>1876.683326778311</v>
       </c>
     </row>
     <row r="6118" spans="1:2">
@@ -49343,7 +49343,7 @@
         <v>6125</v>
       </c>
       <c r="B6125">
-        <v>685.269341076661</v>
+        <v>685.2693410766609</v>
       </c>
     </row>
     <row r="6126" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>441.9145012136072</v>
+        <v>441.9145012136071</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>564.5707154039898</v>
+        <v>564.5707154039897</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>1555.266457257641</v>
+        <v>1555.26645725764</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49687,7 +49687,7 @@
         <v>6168</v>
       </c>
       <c r="B6168">
-        <v>1511.118235993696</v>
+        <v>1511.118235993695</v>
       </c>
     </row>
     <row r="6169" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>1411.834560226392</v>
+        <v>1411.834560226391</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49887,7 +49887,7 @@
         <v>6193</v>
       </c>
       <c r="B6193">
-        <v>1069.313645211718</v>
+        <v>1069.313645211717</v>
       </c>
     </row>
     <row r="6194" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>1996.555243011575</v>
+        <v>1996.555243011574</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>1732.030407878688</v>
+        <v>1732.030407878687</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>1986.022562953125</v>
+        <v>1986.022562953124</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50615,7 +50615,7 @@
         <v>6284</v>
       </c>
       <c r="B6284">
-        <v>1878.318663174042</v>
+        <v>1878.318663174041</v>
       </c>
     </row>
     <row r="6285" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>1905.612369004573</v>
+        <v>1905.612369004572</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50663,7 +50663,7 @@
         <v>6290</v>
       </c>
       <c r="B6290">
-        <v>2225.291327265982</v>
+        <v>2225.291327265981</v>
       </c>
     </row>
     <row r="6291" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>2994.351934942919</v>
+        <v>2994.351934942918</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>825.4873331766381</v>
+        <v>825.487333176638</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>248.1447137897544</v>
+        <v>248.1447137897543</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>857.9274836744779</v>
+        <v>857.9274836744778</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>844.1282631262123</v>
+        <v>844.1282631262122</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50959,7 +50959,7 @@
         <v>6327</v>
       </c>
       <c r="B6327">
-        <v>848.0480882683078</v>
+        <v>848.0480882683077</v>
       </c>
     </row>
     <row r="6328" spans="1:2">
@@ -51135,7 +51135,7 @@
         <v>6349</v>
       </c>
       <c r="B6349">
-        <v>914.2116594209738</v>
+        <v>914.2116594209735</v>
       </c>
     </row>
     <row r="6350" spans="1:2">
@@ -51143,7 +51143,7 @@
         <v>6350</v>
       </c>
       <c r="B6350">
-        <v>1001.540967521282</v>
+        <v>1001.540967521281</v>
       </c>
     </row>
     <row r="6351" spans="1:2">
@@ -51199,7 +51199,7 @@
         <v>6357</v>
       </c>
       <c r="B6357">
-        <v>651.7255143543265</v>
+        <v>651.7255143543264</v>
       </c>
     </row>
     <row r="6358" spans="1:2">
@@ -51279,7 +51279,7 @@
         <v>6367</v>
       </c>
       <c r="B6367">
-        <v>461.5194795527268</v>
+        <v>461.5194795527267</v>
       </c>
     </row>
     <row r="6368" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>335.4549722725491</v>
+        <v>335.454972272549</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>456.0126747362801</v>
+        <v>456.01267473628</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>433.5224032294085</v>
+        <v>433.5224032294084</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51551,7 +51551,7 @@
         <v>6401</v>
       </c>
       <c r="B6401">
-        <v>335.8945788305411</v>
+        <v>335.894578830541</v>
       </c>
     </row>
     <row r="6402" spans="1:2">
@@ -51671,7 +51671,7 @@
         <v>6416</v>
       </c>
       <c r="B6416">
-        <v>249.0963154522878</v>
+        <v>249.0963154522877</v>
       </c>
     </row>
     <row r="6417" spans="1:2">
@@ -51751,7 +51751,7 @@
         <v>6426</v>
       </c>
       <c r="B6426">
-        <v>893.5384283538025</v>
+        <v>893.5384283538024</v>
       </c>
     </row>
     <row r="6427" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>716.189420018276</v>
+        <v>716.1894200182759</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -52215,7 +52215,7 @@
         <v>6484</v>
       </c>
       <c r="B6484">
-        <v>968.3917023382968</v>
+        <v>968.3917023382966</v>
       </c>
     </row>
     <row r="6485" spans="1:2">
@@ -52279,7 +52279,7 @@
         <v>6492</v>
       </c>
       <c r="B6492">
-        <v>1472.177887086763</v>
+        <v>1472.177887086762</v>
       </c>
     </row>
     <row r="6493" spans="1:2">
@@ -52343,7 +52343,7 @@
         <v>6500</v>
       </c>
       <c r="B6500">
-        <v>1820.355073147601</v>
+        <v>1820.3550731476</v>
       </c>
     </row>
     <row r="6501" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>1316.782830257358</v>
+        <v>1316.782830257357</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>698.4322457857851</v>
+        <v>698.432245785785</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52703,7 +52703,7 @@
         <v>6545</v>
       </c>
       <c r="B6545">
-        <v>989.838640947534</v>
+        <v>989.8386409475338</v>
       </c>
     </row>
     <row r="6546" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>823.2834389659048</v>
+        <v>823.2834389659047</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52783,7 +52783,7 @@
         <v>6555</v>
       </c>
       <c r="B6555">
-        <v>78.61073777117132</v>
+        <v>78.6107377711713</v>
       </c>
     </row>
     <row r="6556" spans="1:2">
@@ -52847,7 +52847,7 @@
         <v>6563</v>
       </c>
       <c r="B6563">
-        <v>454.4037147340293</v>
+        <v>454.4037147340292</v>
       </c>
     </row>
     <row r="6564" spans="1:2">
@@ -52887,7 +52887,7 @@
         <v>6568</v>
       </c>
       <c r="B6568">
-        <v>695.0063400057794</v>
+        <v>695.0063400057793</v>
       </c>
     </row>
     <row r="6569" spans="1:2">
@@ -52911,7 +52911,7 @@
         <v>6571</v>
       </c>
       <c r="B6571">
-        <v>290.996974920739</v>
+        <v>290.9969749207389</v>
       </c>
     </row>
     <row r="6572" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>804.8697856068125</v>
+        <v>804.8697856068123</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53167,7 +53167,7 @@
         <v>6603</v>
       </c>
       <c r="B6603">
-        <v>778.0918848043253</v>
+        <v>778.0918848043252</v>
       </c>
     </row>
     <row r="6604" spans="1:2">
@@ -53359,7 +53359,7 @@
         <v>6627</v>
       </c>
       <c r="B6627">
-        <v>799.4831399162169</v>
+        <v>799.4831399162168</v>
       </c>
     </row>
     <row r="6628" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>994.4909268137142</v>
+        <v>994.4909268137141</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>1570.525200885544</v>
+        <v>1570.525200885543</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>81.03824518440324</v>
+        <v>81.03824518440322</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53687,7 +53687,7 @@
         <v>6668</v>
       </c>
       <c r="B6668">
-        <v>1273.235404622669</v>
+        <v>1273.235404622668</v>
       </c>
     </row>
     <row r="6669" spans="1:2">
@@ -53743,7 +53743,7 @@
         <v>6675</v>
       </c>
       <c r="B6675">
-        <v>1591.49296834657</v>
+        <v>1591.492968346569</v>
       </c>
     </row>
     <row r="6676" spans="1:2">
@@ -53815,7 +53815,7 @@
         <v>6684</v>
       </c>
       <c r="B6684">
-        <v>465.0539162789826</v>
+        <v>465.0539162789825</v>
       </c>
     </row>
     <row r="6685" spans="1:2">
@@ -53855,7 +53855,7 @@
         <v>6689</v>
       </c>
       <c r="B6689">
-        <v>445.444533082152</v>
+        <v>445.4445330821519</v>
       </c>
     </row>
     <row r="6690" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>257.255120097581</v>
+        <v>257.2551200975809</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>454.73195429733</v>
+        <v>454.7319542973299</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>949.9780489792043</v>
+        <v>949.9780489792042</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>584.3865818011092</v>
+        <v>584.3865818011091</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54663,7 +54663,7 @@
         <v>6790</v>
       </c>
       <c r="B6790">
-        <v>294.0469652200876</v>
+        <v>294.0469652200875</v>
       </c>
     </row>
     <row r="6791" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>1654.759883967315</v>
+        <v>1654.759883967314</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -55071,7 +55071,7 @@
         <v>6841</v>
       </c>
       <c r="B6841">
-        <v>792.9183486502028</v>
+        <v>792.9183486502027</v>
       </c>
     </row>
     <row r="6842" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>712.974430724161</v>
+        <v>712.9744307241609</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55119,7 +55119,7 @@
         <v>6847</v>
       </c>
       <c r="B6847">
-        <v>734.840460918684</v>
+        <v>734.8404609186839</v>
       </c>
     </row>
     <row r="6848" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>235.7220186029773</v>
+        <v>235.7220186029772</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>211.2330026124353</v>
+        <v>211.2330026124352</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55575,7 +55575,7 @@
         <v>6904</v>
       </c>
       <c r="B6904">
-        <v>919.5476624360887</v>
+        <v>919.5476624360886</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>91.23946189812736</v>
+        <v>91.23946189812732</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>184.5837599959205</v>
+        <v>184.5837599959204</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>82.91331368975852</v>
+        <v>82.91331368975851</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -56327,7 +56327,7 @@
         <v>6998</v>
       </c>
       <c r="B6998">
-        <v>694.8592995250492</v>
+        <v>694.8592995250491</v>
       </c>
     </row>
     <row r="6999" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>842.2690380412071</v>
+        <v>842.269038041207</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>1092.058888522225</v>
+        <v>1092.058888522224</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>64.25465294234532</v>
+        <v>64.2546529423453</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56575,7 +56575,7 @@
         <v>7029</v>
       </c>
       <c r="B7029">
-        <v>242.6639922957486</v>
+        <v>242.6639922957485</v>
       </c>
     </row>
     <row r="7030" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>81.60650992836759</v>
+        <v>81.60650992836757</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -56639,7 +56639,7 @@
         <v>7037</v>
       </c>
       <c r="B7037">
-        <v>91.10171850995653</v>
+        <v>91.1017185099565</v>
       </c>
     </row>
     <row r="7038" spans="1:2">
@@ -56671,7 +56671,7 @@
         <v>7041</v>
       </c>
       <c r="B7041">
-        <v>788.3200640536063</v>
+        <v>788.3200640536062</v>
       </c>
     </row>
     <row r="7042" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>620.2291698293917</v>
+        <v>620.2291698293916</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56927,7 +56927,7 @@
         <v>7073</v>
       </c>
       <c r="B7073">
-        <v>1347.238772595045</v>
+        <v>1347.238772595044</v>
       </c>
     </row>
     <row r="7074" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>952.2434881080566</v>
+        <v>952.2434881080565</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>886.9120921696694</v>
+        <v>886.9120921696693</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57127,7 +57127,7 @@
         <v>7098</v>
       </c>
       <c r="B7098">
-        <v>1685.029521045725</v>
+        <v>1685.029521045724</v>
       </c>
     </row>
     <row r="7099" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>1594.889661684655</v>
+        <v>1594.889661684654</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>2012.489398155177</v>
+        <v>2012.489398155176</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57503,7 +57503,7 @@
         <v>7145</v>
       </c>
       <c r="B7145">
-        <v>989.8708787617868</v>
+        <v>989.8708787617866</v>
       </c>
     </row>
     <row r="7146" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>662.4694986316514</v>
+        <v>662.4694986316513</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>90.3883836018548</v>
+        <v>90.38838360185478</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57847,7 +57847,7 @@
         <v>7188</v>
       </c>
       <c r="B7188">
-        <v>99.13714024797328</v>
+        <v>99.13714024797326</v>
       </c>
     </row>
     <row r="7189" spans="1:2">
@@ -58063,7 +58063,7 @@
         <v>7215</v>
       </c>
       <c r="B7215">
-        <v>91.17791698000846</v>
+        <v>91.17791698000843</v>
       </c>
     </row>
     <row r="7216" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>695.4039251590351</v>
+        <v>695.403925159035</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>421.13722113558</v>
+        <v>421.1372211355799</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59207,7 +59207,7 @@
         <v>7358</v>
       </c>
       <c r="B7358">
-        <v>990.2108411666338</v>
+        <v>990.2108411666336</v>
       </c>
     </row>
     <row r="7359" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>653.8385565430748</v>
+        <v>653.8385565430747</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>696.9287913574524</v>
+        <v>696.9287913574523</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59415,7 +59415,7 @@
         <v>7384</v>
       </c>
       <c r="B7384">
-        <v>531.6074184485875</v>
+        <v>531.6074184485874</v>
       </c>
     </row>
     <row r="7385" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>345.2640599365443</v>
+        <v>345.2640599365442</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59487,7 +59487,7 @@
         <v>7393</v>
       </c>
       <c r="B7393">
-        <v>82.60998516474403</v>
+        <v>82.60998516474402</v>
       </c>
     </row>
     <row r="7394" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>0.0577162380698107</v>
+        <v>0.0577162380698106</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>82.60060689150687</v>
+        <v>82.60060689150686</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>99.13714024797328</v>
+        <v>99.13714024797326</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>530.3120444577044</v>
+        <v>530.3120444577042</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>437.6517741641468</v>
+        <v>437.6517741641467</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>833.0163281598481</v>
+        <v>833.0163281598479</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60583,7 +60583,7 @@
         <v>7530</v>
       </c>
       <c r="B7530">
-        <v>82.58272955814853</v>
+        <v>82.58272955814851</v>
       </c>
     </row>
     <row r="7531" spans="1:2">
@@ -60951,7 +60951,7 @@
         <v>7576</v>
       </c>
       <c r="B7576">
-        <v>82.68471827960268</v>
+        <v>82.68471827960266</v>
       </c>
     </row>
     <row r="7577" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>445.5178008418173</v>
+        <v>445.5178008418172</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>666.1035795110521</v>
+        <v>666.103579511052</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>821.1088518590376</v>
+        <v>821.1088518590375</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>678.5620293645459</v>
+        <v>678.5620293645458</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64575,7 +64575,7 @@
         <v>8029</v>
       </c>
       <c r="B8029">
-        <v>839.1796121028962</v>
+        <v>839.179612102896</v>
       </c>
     </row>
     <row r="8030" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>83.20404016011058</v>
+        <v>83.20404016011057</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>693.4910680739548</v>
+        <v>693.4910680739547</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>457.3813164868286</v>
+        <v>457.3813164868285</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>444.966827289134</v>
+        <v>444.9668272891339</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65127,7 +65127,7 @@
         <v>8098</v>
       </c>
       <c r="B8098">
-        <v>710.2488700646105</v>
+        <v>710.2488700646104</v>
       </c>
     </row>
     <row r="8099" spans="1:2">
@@ -65279,7 +65279,7 @@
         <v>8117</v>
       </c>
       <c r="B8117">
-        <v>798.4544605705156</v>
+        <v>798.4544605705155</v>
       </c>
     </row>
     <row r="8118" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>335.7158054969577</v>
+        <v>335.7158054969576</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>1006.853055939642</v>
+        <v>1006.853055939641</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>908.7195081564602</v>
+        <v>908.7195081564601</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65599,7 +65599,7 @@
         <v>8157</v>
       </c>
       <c r="B8157">
-        <v>642.8073626478617</v>
+        <v>642.8073626478616</v>
       </c>
     </row>
     <row r="8158" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>1551.447243403118</v>
+        <v>1551.447243403117</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>1754.7097395126</v>
+        <v>1754.709739512599</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>1472.860742606844</v>
+        <v>1472.860742606843</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>43.1509005193805</v>
+        <v>43.15090051938049</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>91.18582989805232</v>
+        <v>91.1858298980523</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>99.1544314392543</v>
+        <v>99.15443143925428</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68215,7 +68215,7 @@
         <v>8484</v>
       </c>
       <c r="B8484">
-        <v>202.7436138355321</v>
+        <v>202.743613835532</v>
       </c>
     </row>
     <row r="8485" spans="1:2">
@@ -68247,7 +68247,7 @@
         <v>8488</v>
       </c>
       <c r="B8488">
-        <v>193.8533038777402</v>
+        <v>193.8533038777401</v>
       </c>
     </row>
     <row r="8489" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>99.27488363614412</v>
+        <v>99.2748836361441</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>90.47718412656918</v>
+        <v>90.47718412656916</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>181.1794468108303</v>
+        <v>181.1794468108302</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
